--- a/data/pca/factorExposure/factorExposure_2019-05-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1263984963200262</v>
+        <v>0.07876264945864186</v>
       </c>
       <c r="C2">
-        <v>-0.02147922937560752</v>
+        <v>-0.01644535696851671</v>
       </c>
       <c r="D2">
-        <v>0.03867202101638412</v>
+        <v>0.04202749207022396</v>
       </c>
       <c r="E2">
-        <v>-0.09413744362359479</v>
+        <v>0.1071596241205446</v>
       </c>
       <c r="F2">
-        <v>-0.09719429566121995</v>
+        <v>-0.08730916921847204</v>
       </c>
       <c r="G2">
-        <v>0.1299133540117702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09365890284491525</v>
+      </c>
+      <c r="H2">
+        <v>-0.08381078655094988</v>
+      </c>
+      <c r="I2">
+        <v>0.02357700154409211</v>
+      </c>
+      <c r="J2">
+        <v>-0.03711814027053712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2139405139691533</v>
+        <v>0.1620863036852255</v>
       </c>
       <c r="C3">
-        <v>0.08190472246523701</v>
+        <v>-0.08254399887831847</v>
       </c>
       <c r="D3">
-        <v>-0.02557493547452475</v>
+        <v>-0.02905003955093768</v>
       </c>
       <c r="E3">
-        <v>-0.3236448841418741</v>
+        <v>0.2360884140930833</v>
       </c>
       <c r="F3">
-        <v>-0.0233280356706768</v>
+        <v>-0.304776850471907</v>
       </c>
       <c r="G3">
-        <v>0.3682931399085773</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.02608296137464314</v>
+      </c>
+      <c r="H3">
+        <v>-0.2841827802846496</v>
+      </c>
+      <c r="I3">
+        <v>0.1429931411902004</v>
+      </c>
+      <c r="J3">
+        <v>-0.3609318110663877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09828300737694626</v>
+        <v>0.07281187245706598</v>
       </c>
       <c r="C4">
-        <v>0.02184804719374728</v>
+        <v>-0.03436191203524518</v>
       </c>
       <c r="D4">
-        <v>0.01643404280219284</v>
+        <v>0.02581239690201621</v>
       </c>
       <c r="E4">
-        <v>-0.07426984093155466</v>
+        <v>0.03294326237098712</v>
       </c>
       <c r="F4">
-        <v>-0.05081268567435176</v>
+        <v>-0.08855392441639878</v>
       </c>
       <c r="G4">
-        <v>0.03934806409790491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03582464186339986</v>
+      </c>
+      <c r="H4">
+        <v>-0.03224244246349196</v>
+      </c>
+      <c r="I4">
+        <v>0.02589519376838505</v>
+      </c>
+      <c r="J4">
+        <v>-0.04446589788566393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01382577456288391</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003192206342432869</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0002190797572896711</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.003282431999130334</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003632603958110459</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01825237489581904</v>
+      </c>
+      <c r="H6">
+        <v>-0.001779466871472747</v>
+      </c>
+      <c r="I6">
+        <v>-0.0021272049482654</v>
+      </c>
+      <c r="J6">
+        <v>0.001322361294358839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04340524545970257</v>
+        <v>0.03371921151336538</v>
       </c>
       <c r="C7">
-        <v>0.005176773673525944</v>
+        <v>-0.01813177536711619</v>
       </c>
       <c r="D7">
-        <v>0.03214149664443466</v>
+        <v>0.01998881300910223</v>
       </c>
       <c r="E7">
-        <v>-0.08286274998945084</v>
+        <v>0.03301835904375174</v>
       </c>
       <c r="F7">
-        <v>0.03331383356063075</v>
+        <v>-0.05222760078728454</v>
       </c>
       <c r="G7">
-        <v>0.01450901763304598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01216130443209321</v>
+      </c>
+      <c r="H7">
+        <v>-0.04714876313190029</v>
+      </c>
+      <c r="I7">
+        <v>0.00142556661417619</v>
+      </c>
+      <c r="J7">
+        <v>-0.01051885692881859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04336520105681903</v>
+        <v>0.03237605985701776</v>
       </c>
       <c r="C8">
-        <v>0.03630319346668121</v>
+        <v>-0.03817962738042262</v>
       </c>
       <c r="D8">
-        <v>-0.0005898386053090395</v>
+        <v>0.008564281484845703</v>
       </c>
       <c r="E8">
-        <v>-0.06902838146489712</v>
+        <v>0.03439272950269875</v>
       </c>
       <c r="F8">
-        <v>0.0002496739645446434</v>
+        <v>-0.07804507111724847</v>
       </c>
       <c r="G8">
-        <v>0.05638022013536122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0006612863583252184</v>
+      </c>
+      <c r="H8">
+        <v>-0.05527030636629815</v>
+      </c>
+      <c r="I8">
+        <v>0.02834987800803518</v>
+      </c>
+      <c r="J8">
+        <v>-0.03836059632915563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08489377625572785</v>
+        <v>0.06187959617511247</v>
       </c>
       <c r="C9">
-        <v>0.02470726800963133</v>
+        <v>-0.03500755410064516</v>
       </c>
       <c r="D9">
-        <v>0.02737872815408627</v>
+        <v>0.02688680048118764</v>
       </c>
       <c r="E9">
-        <v>-0.06705736936542131</v>
+        <v>0.03117447409388499</v>
       </c>
       <c r="F9">
-        <v>-0.03238542651216209</v>
+        <v>-0.08923875033836132</v>
       </c>
       <c r="G9">
-        <v>0.03599454741349559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02688661980529942</v>
+      </c>
+      <c r="H9">
+        <v>-0.02863426009401216</v>
+      </c>
+      <c r="I9">
+        <v>0.007344976122374158</v>
+      </c>
+      <c r="J9">
+        <v>-0.006607402076977078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.0159075601575601</v>
+        <v>0.0106512368508621</v>
       </c>
       <c r="C10">
-        <v>-0.1612088394129396</v>
+        <v>0.1601925389919119</v>
       </c>
       <c r="D10">
-        <v>-0.008454692519317811</v>
+        <v>-0.01496062085294809</v>
       </c>
       <c r="E10">
-        <v>-0.05337321308198808</v>
+        <v>0.05123321881905668</v>
       </c>
       <c r="F10">
-        <v>-0.01088151211042843</v>
+        <v>-0.03486034094517973</v>
       </c>
       <c r="G10">
-        <v>0.0007571754846326508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02251731997212084</v>
+      </c>
+      <c r="H10">
+        <v>0.006388466127675304</v>
+      </c>
+      <c r="I10">
+        <v>0.1212141779138169</v>
+      </c>
+      <c r="J10">
+        <v>-0.01095934301132963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05765832348484701</v>
+        <v>0.04861492247756154</v>
       </c>
       <c r="C11">
-        <v>0.003230642267099669</v>
+        <v>-0.02148532566000636</v>
       </c>
       <c r="D11">
-        <v>-0.01128006287665836</v>
+        <v>0.006513676238375119</v>
       </c>
       <c r="E11">
-        <v>-0.04002205935876434</v>
+        <v>0.03809820525356714</v>
       </c>
       <c r="F11">
-        <v>-0.00633808357488251</v>
+        <v>-0.02503829528788791</v>
       </c>
       <c r="G11">
-        <v>-0.01594350696037995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002854973341030605</v>
+      </c>
+      <c r="H11">
+        <v>-0.01420698856771872</v>
+      </c>
+      <c r="I11">
+        <v>-0.01638214149757252</v>
+      </c>
+      <c r="J11">
+        <v>-0.01013460577342188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04376578549952109</v>
+        <v>0.04394623852685194</v>
       </c>
       <c r="C12">
-        <v>0.01059792057337089</v>
+        <v>-0.02226650837701421</v>
       </c>
       <c r="D12">
-        <v>-0.007668576173387291</v>
+        <v>0.006326493477904049</v>
       </c>
       <c r="E12">
-        <v>-0.03366801224875035</v>
+        <v>0.01529913949663417</v>
       </c>
       <c r="F12">
-        <v>-0.002690961888440201</v>
+        <v>-0.02175445852444685</v>
       </c>
       <c r="G12">
-        <v>-0.0003152156566229021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003063711885329174</v>
+      </c>
+      <c r="H12">
+        <v>-0.01125724977800232</v>
+      </c>
+      <c r="I12">
+        <v>-0.01789083602134422</v>
+      </c>
+      <c r="J12">
+        <v>-0.003685655427243178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.060476626312299</v>
+        <v>0.04093376726397217</v>
       </c>
       <c r="C13">
-        <v>0.01491252279438892</v>
+        <v>-0.02212699409992197</v>
       </c>
       <c r="D13">
-        <v>-0.01094234442962308</v>
+        <v>0.00843046289821538</v>
       </c>
       <c r="E13">
-        <v>-0.1083748840106579</v>
+        <v>0.08024572248658257</v>
       </c>
       <c r="F13">
-        <v>-0.02131858572031787</v>
+        <v>-0.06801343008920305</v>
       </c>
       <c r="G13">
-        <v>0.05259617816444708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.009670031480069313</v>
+      </c>
+      <c r="H13">
+        <v>-0.05977799741992644</v>
+      </c>
+      <c r="I13">
+        <v>0.009429664478822011</v>
+      </c>
+      <c r="J13">
+        <v>-0.02463894778330701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03778151667278258</v>
+        <v>0.02776332756890151</v>
       </c>
       <c r="C14">
-        <v>0.006405155953864088</v>
+        <v>-0.01463845817152577</v>
       </c>
       <c r="D14">
-        <v>0.02185591014533606</v>
+        <v>0.02344667036793335</v>
       </c>
       <c r="E14">
-        <v>-0.02061231428864001</v>
+        <v>0.01748708303284413</v>
       </c>
       <c r="F14">
-        <v>0.00488535770034913</v>
+        <v>-0.03622574030904285</v>
       </c>
       <c r="G14">
-        <v>0.04249284513662362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01493680732935374</v>
+      </c>
+      <c r="H14">
+        <v>-0.05784367089122925</v>
+      </c>
+      <c r="I14">
+        <v>0.01643850206111458</v>
+      </c>
+      <c r="J14">
+        <v>0.008024456841010453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04875688047944923</v>
+        <v>0.04183539013652832</v>
       </c>
       <c r="C16">
-        <v>0.02050190550257094</v>
+        <v>-0.02902545984238636</v>
       </c>
       <c r="D16">
-        <v>-0.01885027730279008</v>
+        <v>0.001271177993768849</v>
       </c>
       <c r="E16">
-        <v>-0.03817624119844661</v>
+        <v>0.03147887186966834</v>
       </c>
       <c r="F16">
-        <v>-0.001351589463565408</v>
+        <v>-0.02422075392044517</v>
       </c>
       <c r="G16">
-        <v>-0.01186481557467984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005710592638410077</v>
+      </c>
+      <c r="H16">
+        <v>-0.01574760578124867</v>
+      </c>
+      <c r="I16">
+        <v>-0.0146868125328846</v>
+      </c>
+      <c r="J16">
+        <v>-0.008740103373820782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.0523728295246104</v>
+        <v>0.04505444834660115</v>
       </c>
       <c r="C19">
-        <v>0.02595227469924634</v>
+        <v>-0.03538112444234404</v>
       </c>
       <c r="D19">
-        <v>-0.001066755150498307</v>
+        <v>0.01007102781411411</v>
       </c>
       <c r="E19">
-        <v>-0.07694949202047127</v>
+        <v>0.05873585166426067</v>
       </c>
       <c r="F19">
-        <v>0.005661435055110202</v>
+        <v>-0.07002826424652218</v>
       </c>
       <c r="G19">
-        <v>0.07189701201051502</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.003630121103916635</v>
+      </c>
+      <c r="H19">
+        <v>-0.08575820120118727</v>
+      </c>
+      <c r="I19">
+        <v>0.03680599413983898</v>
+      </c>
+      <c r="J19">
+        <v>-0.01755739363069361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03828713151927591</v>
+        <v>0.01872038786030032</v>
       </c>
       <c r="C20">
-        <v>0.03343056617455739</v>
+        <v>-0.03331531769310559</v>
       </c>
       <c r="D20">
-        <v>0.01170436773445232</v>
+        <v>0.01669471437354635</v>
       </c>
       <c r="E20">
-        <v>-0.06716091288557431</v>
+        <v>0.03844943934593425</v>
       </c>
       <c r="F20">
-        <v>0.01415717415618721</v>
+        <v>-0.06169261551168805</v>
       </c>
       <c r="G20">
-        <v>0.04631200862499498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01003945187318308</v>
+      </c>
+      <c r="H20">
+        <v>-0.07610497818492386</v>
+      </c>
+      <c r="I20">
+        <v>0.0142357108231718</v>
+      </c>
+      <c r="J20">
+        <v>-0.04821539346697756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03903588521615915</v>
+        <v>0.01875241033480871</v>
       </c>
       <c r="C21">
-        <v>0.01398550667210338</v>
+        <v>-0.02501733396594377</v>
       </c>
       <c r="D21">
-        <v>-0.006470438799776082</v>
+        <v>-0.001740206617381714</v>
       </c>
       <c r="E21">
-        <v>-0.08611890558650369</v>
+        <v>0.04188566936400326</v>
       </c>
       <c r="F21">
-        <v>-0.04570870738645914</v>
+        <v>-0.06969736737184537</v>
       </c>
       <c r="G21">
-        <v>0.05515331371580409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02318099608172492</v>
+      </c>
+      <c r="H21">
+        <v>-0.04193062704448892</v>
+      </c>
+      <c r="I21">
+        <v>-0.00556277115892764</v>
+      </c>
+      <c r="J21">
+        <v>0.0122970443922421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04839778277310382</v>
+        <v>0.04144593652132258</v>
       </c>
       <c r="C24">
-        <v>0.01188071258923224</v>
+        <v>-0.01915612635918943</v>
       </c>
       <c r="D24">
-        <v>-0.005580815061558273</v>
+        <v>0.006519867866450538</v>
       </c>
       <c r="E24">
-        <v>-0.04806458355261932</v>
+        <v>0.03396556799842619</v>
       </c>
       <c r="F24">
-        <v>-0.0036329100411069</v>
+        <v>-0.02904390636676822</v>
       </c>
       <c r="G24">
-        <v>-0.007277823677439391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.009126601674992853</v>
+      </c>
+      <c r="H24">
+        <v>-0.01520589849976791</v>
+      </c>
+      <c r="I24">
+        <v>-0.01305801862771726</v>
+      </c>
+      <c r="J24">
+        <v>-0.01792622603453202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04939763648708585</v>
+        <v>0.04254657122527369</v>
       </c>
       <c r="C25">
-        <v>0.003458174058681858</v>
+        <v>-0.01991924526359375</v>
       </c>
       <c r="D25">
-        <v>-0.008611215557521333</v>
+        <v>0.003775333532643231</v>
       </c>
       <c r="E25">
-        <v>-0.04488685355277487</v>
+        <v>0.03595477304455436</v>
       </c>
       <c r="F25">
-        <v>-0.01022185748176116</v>
+        <v>-0.03363454671989802</v>
       </c>
       <c r="G25">
-        <v>-0.0108710666216424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.001463252795666406</v>
+      </c>
+      <c r="H25">
+        <v>-0.008801518020149075</v>
+      </c>
+      <c r="I25">
+        <v>-0.01590854157165808</v>
+      </c>
+      <c r="J25">
+        <v>-0.006768833755171951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005943862728374844</v>
+        <v>0.01181151368049243</v>
       </c>
       <c r="C26">
-        <v>0.01631339188513598</v>
+        <v>-0.01645345602041725</v>
       </c>
       <c r="D26">
-        <v>0.00488357449032214</v>
+        <v>-0.0008570737938017574</v>
       </c>
       <c r="E26">
-        <v>-0.04854014939937504</v>
+        <v>0.04282738920502761</v>
       </c>
       <c r="F26">
-        <v>-0.01781714774523957</v>
+        <v>-0.03222577883878469</v>
       </c>
       <c r="G26">
-        <v>0.01504094299342811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.009160385011142299</v>
+      </c>
+      <c r="H26">
+        <v>-0.03745719308266612</v>
+      </c>
+      <c r="I26">
+        <v>-0.00509062479357246</v>
+      </c>
+      <c r="J26">
+        <v>-0.01213091291707811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1132136732703567</v>
+        <v>0.08629631476962457</v>
       </c>
       <c r="C27">
-        <v>0.01460622384841569</v>
+        <v>-0.02733080053443862</v>
       </c>
       <c r="D27">
-        <v>0.01739712520400545</v>
+        <v>0.03041591727777617</v>
       </c>
       <c r="E27">
-        <v>-0.1112758906113913</v>
+        <v>0.0445682244231811</v>
       </c>
       <c r="F27">
-        <v>-0.02375970997195001</v>
+        <v>-0.07681897482643568</v>
       </c>
       <c r="G27">
-        <v>-0.003346589900058223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.006386080379096328</v>
+      </c>
+      <c r="H27">
+        <v>-0.009553250117671679</v>
+      </c>
+      <c r="I27">
+        <v>0.006381600820008708</v>
+      </c>
+      <c r="J27">
+        <v>-0.02846383797149691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.016086185157214</v>
+        <v>0.02515168396651104</v>
       </c>
       <c r="C28">
-        <v>-0.2412972242836868</v>
+        <v>0.2325709826691349</v>
       </c>
       <c r="D28">
-        <v>-0.01833747477197927</v>
+        <v>-0.02281821527897632</v>
       </c>
       <c r="E28">
-        <v>-0.0293232599815966</v>
+        <v>0.04048960552163192</v>
       </c>
       <c r="F28">
-        <v>-0.0120356822735896</v>
+        <v>-0.02840031994569419</v>
       </c>
       <c r="G28">
-        <v>-0.01860159026849913</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02685633980047479</v>
+      </c>
+      <c r="H28">
+        <v>0.02930551787868575</v>
+      </c>
+      <c r="I28">
+        <v>0.1679726096714997</v>
+      </c>
+      <c r="J28">
+        <v>-0.0260037634420475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02017911961189752</v>
+        <v>0.01894980956607706</v>
       </c>
       <c r="C29">
-        <v>0.0167973882953666</v>
+        <v>-0.01841218828304816</v>
       </c>
       <c r="D29">
-        <v>0.02361318501283416</v>
+        <v>0.02189116208268064</v>
       </c>
       <c r="E29">
-        <v>-0.02873335475819059</v>
+        <v>0.01283396903739202</v>
       </c>
       <c r="F29">
-        <v>-0.006484657356527218</v>
+        <v>-0.04045586428150145</v>
       </c>
       <c r="G29">
-        <v>0.04119232830857506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01476253724396835</v>
+      </c>
+      <c r="H29">
+        <v>-0.05665789114929845</v>
+      </c>
+      <c r="I29">
+        <v>0.006954726526291978</v>
+      </c>
+      <c r="J29">
+        <v>0.02102064742487793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1071197699384644</v>
+        <v>0.09948971294042137</v>
       </c>
       <c r="C30">
-        <v>0.008485316846717699</v>
+        <v>-0.03617045158819277</v>
       </c>
       <c r="D30">
-        <v>0.01322460788950667</v>
+        <v>0.03308432014792668</v>
       </c>
       <c r="E30">
-        <v>-0.1247746619778388</v>
+        <v>0.08904863249219058</v>
       </c>
       <c r="F30">
-        <v>-0.03591404358654728</v>
+        <v>-0.07516674454906584</v>
       </c>
       <c r="G30">
-        <v>-0.07027218410686198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.007259379383998771</v>
+      </c>
+      <c r="H30">
+        <v>-0.01110428344986141</v>
+      </c>
+      <c r="I30">
+        <v>-0.02689397649633123</v>
+      </c>
+      <c r="J30">
+        <v>0.003856629417880246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05745551009107572</v>
+        <v>0.05948519274203047</v>
       </c>
       <c r="C31">
-        <v>0.01010609330322736</v>
+        <v>-0.01735320022616357</v>
       </c>
       <c r="D31">
-        <v>0.01830651321689783</v>
+        <v>0.0198217783937063</v>
       </c>
       <c r="E31">
-        <v>0.02132715893420572</v>
+        <v>0.01239927675336709</v>
       </c>
       <c r="F31">
-        <v>-0.004964924691543735</v>
+        <v>0.005665075355877253</v>
       </c>
       <c r="G31">
-        <v>0.01083537754997195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03420457046859607</v>
+      </c>
+      <c r="H31">
+        <v>-0.04782431760238266</v>
+      </c>
+      <c r="I31">
+        <v>0.01269163120301199</v>
+      </c>
+      <c r="J31">
+        <v>0.01833969584250129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07155293866035435</v>
+        <v>0.04828355981159739</v>
       </c>
       <c r="C32">
-        <v>0.02368997431171288</v>
+        <v>-0.04406301700454558</v>
       </c>
       <c r="D32">
-        <v>0.01036241451106392</v>
+        <v>0.02444816168724307</v>
       </c>
       <c r="E32">
-        <v>-0.1181146930345107</v>
+        <v>0.05340336317055815</v>
       </c>
       <c r="F32">
-        <v>0.00419155933551598</v>
+        <v>-0.08533821621848786</v>
       </c>
       <c r="G32">
-        <v>0.04835677736982134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.002591867544695293</v>
+      </c>
+      <c r="H32">
+        <v>-0.05268449114226065</v>
+      </c>
+      <c r="I32">
+        <v>0.021448490304957</v>
+      </c>
+      <c r="J32">
+        <v>-0.001127966118164231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.0697799727698087</v>
+        <v>0.05799407277606201</v>
       </c>
       <c r="C33">
-        <v>0.02874715006718783</v>
+        <v>-0.04492708946203004</v>
       </c>
       <c r="D33">
-        <v>0.007770242039067513</v>
+        <v>0.007891155280635078</v>
       </c>
       <c r="E33">
-        <v>-0.06910300201119216</v>
+        <v>0.06187454329065744</v>
       </c>
       <c r="F33">
-        <v>-0.04293764445352937</v>
+        <v>-0.05652584382123527</v>
       </c>
       <c r="G33">
-        <v>0.02505159927852476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02050955678067171</v>
+      </c>
+      <c r="H33">
+        <v>-0.0499653399389438</v>
+      </c>
+      <c r="I33">
+        <v>-0.01443266769389426</v>
+      </c>
+      <c r="J33">
+        <v>-0.01071816622056504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04730673214659151</v>
+        <v>0.04121251463991051</v>
       </c>
       <c r="C34">
-        <v>0.01221413473945006</v>
+        <v>-0.02439676605612292</v>
       </c>
       <c r="D34">
-        <v>-0.006400959314483854</v>
+        <v>0.009804006709094317</v>
       </c>
       <c r="E34">
-        <v>-0.02600749666190823</v>
+        <v>0.02621334168765648</v>
       </c>
       <c r="F34">
-        <v>0.002529404598786002</v>
+        <v>-0.02618169940509351</v>
       </c>
       <c r="G34">
-        <v>0.005548811590094721</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.001008681843348511</v>
+      </c>
+      <c r="H34">
+        <v>-0.0204812470058141</v>
+      </c>
+      <c r="I34">
+        <v>-0.01352947246603169</v>
+      </c>
+      <c r="J34">
+        <v>-0.0001315354211795918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01217024603116814</v>
+        <v>0.01410207930799951</v>
       </c>
       <c r="C36">
-        <v>-0.01058546665466568</v>
+        <v>-0.0006609306097109587</v>
       </c>
       <c r="D36">
-        <v>0.005984639550745368</v>
+        <v>0.007878380904879587</v>
       </c>
       <c r="E36">
-        <v>-0.02274969439262589</v>
+        <v>0.01626161053522904</v>
       </c>
       <c r="F36">
-        <v>-0.00770416611530916</v>
+        <v>-0.02507170164539302</v>
       </c>
       <c r="G36">
-        <v>0.0135582352719643</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01463874841505687</v>
+      </c>
+      <c r="H36">
+        <v>-0.03284709511949049</v>
+      </c>
+      <c r="I36">
+        <v>0.003715921557520796</v>
+      </c>
+      <c r="J36">
+        <v>0.01998858176446704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05578063489719243</v>
+        <v>0.03137863083608446</v>
       </c>
       <c r="C38">
-        <v>0.00194773196685531</v>
+        <v>-0.008567789254711591</v>
       </c>
       <c r="D38">
-        <v>0.02577384655372636</v>
+        <v>0.008949631420336963</v>
       </c>
       <c r="E38">
-        <v>-0.03165663609650674</v>
+        <v>0.02896390980326942</v>
       </c>
       <c r="F38">
-        <v>-0.01312423279545317</v>
+        <v>-0.0436417647885375</v>
       </c>
       <c r="G38">
-        <v>0.04357919429965252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02546441562864316</v>
+      </c>
+      <c r="H38">
+        <v>-0.01882171414601221</v>
+      </c>
+      <c r="I38">
+        <v>-0.001401633833979509</v>
+      </c>
+      <c r="J38">
+        <v>0.02859240817924399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07583865893969281</v>
+        <v>0.05829933710453971</v>
       </c>
       <c r="C39">
-        <v>0.01147772665146938</v>
+        <v>-0.03501389805835403</v>
       </c>
       <c r="D39">
-        <v>-0.001752549187399088</v>
+        <v>0.01731326282884638</v>
       </c>
       <c r="E39">
-        <v>-0.04851211611837649</v>
+        <v>0.05227275208303381</v>
       </c>
       <c r="F39">
-        <v>-0.02359849921238335</v>
+        <v>-0.03417171103282274</v>
       </c>
       <c r="G39">
-        <v>-0.007173266961752953</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01129554703604936</v>
+      </c>
+      <c r="H39">
+        <v>-0.01640259965246155</v>
+      </c>
+      <c r="I39">
+        <v>-0.03287849726080262</v>
+      </c>
+      <c r="J39">
+        <v>-0.005264225056675161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07226288667584418</v>
+        <v>0.05672982013375315</v>
       </c>
       <c r="C40">
-        <v>0.02553510977418451</v>
+        <v>-0.03375092000238651</v>
       </c>
       <c r="D40">
-        <v>0.002242201785249579</v>
+        <v>0.02560672497464618</v>
       </c>
       <c r="E40">
-        <v>-0.11119928480093</v>
+        <v>0.08960494903790536</v>
       </c>
       <c r="F40">
-        <v>-0.0372989012041082</v>
+        <v>-0.06596896735771929</v>
       </c>
       <c r="G40">
-        <v>0.09644882295939083</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.003523228800405854</v>
+      </c>
+      <c r="H40">
+        <v>-0.08097622083554823</v>
+      </c>
+      <c r="I40">
+        <v>0.004585751911103766</v>
+      </c>
+      <c r="J40">
+        <v>-0.05012950448024642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004017302534444147</v>
+        <v>0.001145580596258574</v>
       </c>
       <c r="C41">
-        <v>0.01128973892173383</v>
+        <v>-0.01051244546317806</v>
       </c>
       <c r="D41">
-        <v>0.01863255145420395</v>
+        <v>0.005451241986903427</v>
       </c>
       <c r="E41">
-        <v>-0.01107992900524478</v>
+        <v>0.007943921980505373</v>
       </c>
       <c r="F41">
-        <v>-0.02252166437178186</v>
+        <v>-0.01584037169350662</v>
       </c>
       <c r="G41">
-        <v>0.0298710750916934</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02773022088724756</v>
+      </c>
+      <c r="H41">
+        <v>-0.04057364071301556</v>
+      </c>
+      <c r="I41">
+        <v>0.02388319403664216</v>
+      </c>
+      <c r="J41">
+        <v>0.002345830363337158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1417064614710477</v>
+        <v>0.2419957839969661</v>
       </c>
       <c r="C42">
-        <v>0.1868250685368868</v>
+        <v>-0.1541575198952012</v>
       </c>
       <c r="D42">
-        <v>-0.9306574786498681</v>
+        <v>-0.9078880687353057</v>
       </c>
       <c r="E42">
-        <v>0.05278394064734847</v>
+        <v>0.04023085998372349</v>
       </c>
       <c r="F42">
-        <v>0.01887899023124615</v>
+        <v>0.2441237961185427</v>
       </c>
       <c r="G42">
-        <v>-0.114269448058736</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.002193085725026171</v>
+      </c>
+      <c r="H42">
+        <v>-0.006554489305978766</v>
+      </c>
+      <c r="I42">
+        <v>0.05766026109017428</v>
+      </c>
+      <c r="J42">
+        <v>-0.006124626116704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008434580970048554</v>
+        <v>0.003564398171826434</v>
       </c>
       <c r="C43">
-        <v>0.013415600603009</v>
+        <v>-0.01315004520840368</v>
       </c>
       <c r="D43">
-        <v>0.01740048118010374</v>
+        <v>0.006831667741748819</v>
       </c>
       <c r="E43">
-        <v>-0.03043495946532804</v>
+        <v>0.01763484444238052</v>
       </c>
       <c r="F43">
-        <v>0.001537825102040609</v>
+        <v>-0.02440693919078168</v>
       </c>
       <c r="G43">
-        <v>0.02208648245259795</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009749643763894075</v>
+      </c>
+      <c r="H43">
+        <v>-0.03874254135261882</v>
+      </c>
+      <c r="I43">
+        <v>0.01533409860806187</v>
+      </c>
+      <c r="J43">
+        <v>-0.002075515195239037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04075414065122936</v>
+        <v>0.0273709348074801</v>
       </c>
       <c r="C44">
-        <v>0.03652540192365548</v>
+        <v>-0.03254250489461968</v>
       </c>
       <c r="D44">
-        <v>0.007470134170549799</v>
+        <v>0.003821114581821297</v>
       </c>
       <c r="E44">
-        <v>-0.1128927753825705</v>
+        <v>0.08073816947244931</v>
       </c>
       <c r="F44">
-        <v>-0.07713294404878625</v>
+        <v>-0.09284934218801287</v>
       </c>
       <c r="G44">
-        <v>0.1307733492526545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03575271136659083</v>
+      </c>
+      <c r="H44">
+        <v>-0.1184181364300601</v>
+      </c>
+      <c r="I44">
+        <v>0.02365381618858113</v>
+      </c>
+      <c r="J44">
+        <v>-0.01319933954441384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02140298984110392</v>
+        <v>0.021231025664341</v>
       </c>
       <c r="C46">
-        <v>0.01198092871906488</v>
+        <v>-0.02472712674872597</v>
       </c>
       <c r="D46">
-        <v>0.02326856259969139</v>
+        <v>0.02028910167174115</v>
       </c>
       <c r="E46">
-        <v>-0.02081457003753129</v>
+        <v>0.02861936239548821</v>
       </c>
       <c r="F46">
-        <v>-0.02058139399569167</v>
+        <v>-0.03743819168818686</v>
       </c>
       <c r="G46">
-        <v>0.04232082815455124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01682445352724173</v>
+      </c>
+      <c r="H46">
+        <v>-0.06282978819369624</v>
+      </c>
+      <c r="I46">
+        <v>0.01514466980408521</v>
+      </c>
+      <c r="J46">
+        <v>-0.001833251755836275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08104570401452856</v>
+        <v>0.08834313637573318</v>
       </c>
       <c r="C47">
-        <v>0.004964643201793758</v>
+        <v>-0.01665350289618605</v>
       </c>
       <c r="D47">
-        <v>0.01988027269966537</v>
+        <v>0.02549192382446002</v>
       </c>
       <c r="E47">
-        <v>0.02495729444599941</v>
+        <v>-0.003338173324751942</v>
       </c>
       <c r="F47">
-        <v>-0.0001043116777029858</v>
+        <v>0.003674507969518343</v>
       </c>
       <c r="G47">
-        <v>0.03349299690591214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03147766141958067</v>
+      </c>
+      <c r="H47">
+        <v>-0.06576475083143657</v>
+      </c>
+      <c r="I47">
+        <v>0.02142218076224139</v>
+      </c>
+      <c r="J47">
+        <v>0.004871260114739319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01541369945338092</v>
+        <v>0.01627703618054374</v>
       </c>
       <c r="C48">
-        <v>0.01568722943277357</v>
+        <v>-0.01857355464490475</v>
       </c>
       <c r="D48">
-        <v>0.0151103777349111</v>
+        <v>0.009367945638477421</v>
       </c>
       <c r="E48">
-        <v>-0.03386929655223041</v>
+        <v>0.01759264705780124</v>
       </c>
       <c r="F48">
-        <v>-0.01555329951491995</v>
+        <v>-0.0319978259857491</v>
       </c>
       <c r="G48">
-        <v>0.01198675371684478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008216482519043561</v>
+      </c>
+      <c r="H48">
+        <v>-0.02452818210425855</v>
+      </c>
+      <c r="I48">
+        <v>0.01340420070757788</v>
+      </c>
+      <c r="J48">
+        <v>0.002530588496310225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07893671067501368</v>
+        <v>0.08241838103616282</v>
       </c>
       <c r="C50">
-        <v>0.01802738508630269</v>
+        <v>-0.02801205671302906</v>
       </c>
       <c r="D50">
-        <v>0.02719984802695763</v>
+        <v>0.02066787290541091</v>
       </c>
       <c r="E50">
-        <v>0.02724973600267898</v>
+        <v>-0.004482716757096413</v>
       </c>
       <c r="F50">
-        <v>-0.000798018902539403</v>
+        <v>-0.003907214566538185</v>
       </c>
       <c r="G50">
-        <v>0.02105961638567896</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0042979075843734</v>
+      </c>
+      <c r="H50">
+        <v>-0.05324746002380101</v>
+      </c>
+      <c r="I50">
+        <v>0.004176138556815632</v>
+      </c>
+      <c r="J50">
+        <v>0.05037972915262318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.0705939308183702</v>
+        <v>0.04790262203328037</v>
       </c>
       <c r="C51">
-        <v>-0.02409598111957675</v>
+        <v>0.004529353538451516</v>
       </c>
       <c r="D51">
-        <v>-0.003577059966488571</v>
+        <v>0.01125021014642493</v>
       </c>
       <c r="E51">
-        <v>-0.07472693181346417</v>
+        <v>0.07971103409611531</v>
       </c>
       <c r="F51">
-        <v>-0.0510245006013243</v>
+        <v>-0.05549277926298016</v>
       </c>
       <c r="G51">
-        <v>0.02366673416045863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04564832333498717</v>
+      </c>
+      <c r="H51">
+        <v>-0.06358503866164648</v>
+      </c>
+      <c r="I51">
+        <v>0.03418825937480271</v>
+      </c>
+      <c r="J51">
+        <v>0.005715887469021221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1438827046043488</v>
+        <v>0.1276989733629252</v>
       </c>
       <c r="C53">
-        <v>0.005899976897720406</v>
+        <v>-0.03375661578040705</v>
       </c>
       <c r="D53">
-        <v>0.04526594376874656</v>
+        <v>0.04840156413877358</v>
       </c>
       <c r="E53">
-        <v>0.03825979978278204</v>
+        <v>-0.02457112374792366</v>
       </c>
       <c r="F53">
-        <v>0.01196804900022667</v>
+        <v>0.02193785952619923</v>
       </c>
       <c r="G53">
-        <v>0.001539949888582646</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0223270079373758</v>
+      </c>
+      <c r="H53">
+        <v>-0.006678989508234595</v>
+      </c>
+      <c r="I53">
+        <v>0.03181110555162481</v>
+      </c>
+      <c r="J53">
+        <v>-0.0395457163675066</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02553736899769172</v>
+        <v>0.02128118791256363</v>
       </c>
       <c r="C54">
-        <v>-0.005987910118619972</v>
+        <v>-0.007354636873803733</v>
       </c>
       <c r="D54">
-        <v>0.02677193922178583</v>
+        <v>0.02457210347687473</v>
       </c>
       <c r="E54">
-        <v>-0.0300558925627195</v>
+        <v>0.01703557901648698</v>
       </c>
       <c r="F54">
-        <v>-0.03925199893609387</v>
+        <v>-0.04291606193258272</v>
       </c>
       <c r="G54">
-        <v>0.05407137262257122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03424643651371978</v>
+      </c>
+      <c r="H54">
+        <v>-0.05416252371892462</v>
+      </c>
+      <c r="I54">
+        <v>0.03294174182693247</v>
+      </c>
+      <c r="J54">
+        <v>0.02542927214144993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09734260080138427</v>
+        <v>0.1012406204715278</v>
       </c>
       <c r="C55">
-        <v>-0.005002150234948676</v>
+        <v>-0.01815350456999872</v>
       </c>
       <c r="D55">
-        <v>0.0399250231510715</v>
+        <v>0.03078784327017407</v>
       </c>
       <c r="E55">
-        <v>0.002838822698999256</v>
+        <v>-0.03645583136090317</v>
       </c>
       <c r="F55">
-        <v>0.02802801442090755</v>
+        <v>-0.006223319457604886</v>
       </c>
       <c r="G55">
-        <v>-0.006829453976218582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01115397401047103</v>
+      </c>
+      <c r="H55">
+        <v>-0.02024897950284055</v>
+      </c>
+      <c r="I55">
+        <v>0.01144400276650151</v>
+      </c>
+      <c r="J55">
+        <v>-0.02786673271373918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1786673392431044</v>
+        <v>0.169170409403366</v>
       </c>
       <c r="C56">
-        <v>-0.02045755880826723</v>
+        <v>-0.01532080438909912</v>
       </c>
       <c r="D56">
-        <v>0.07869236697221441</v>
+        <v>0.08487194933368224</v>
       </c>
       <c r="E56">
-        <v>0.06845583005942862</v>
+        <v>-0.06767719643406932</v>
       </c>
       <c r="F56">
-        <v>0.06579813891512368</v>
+        <v>0.03650597515543859</v>
       </c>
       <c r="G56">
-        <v>-0.02620730268188497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02330696520117702</v>
+      </c>
+      <c r="H56">
+        <v>0.03684410509178541</v>
+      </c>
+      <c r="I56">
+        <v>-0.001971881970964508</v>
+      </c>
+      <c r="J56">
+        <v>-0.06428095196423735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09010321145503933</v>
+        <v>0.0692584871872694</v>
       </c>
       <c r="C57">
-        <v>0.02145595395248558</v>
+        <v>-0.02817403554831068</v>
       </c>
       <c r="D57">
-        <v>0.02229825684949554</v>
+        <v>0.01402572792686588</v>
       </c>
       <c r="E57">
-        <v>-0.06319216464099214</v>
+        <v>0.05365132354528007</v>
       </c>
       <c r="F57">
-        <v>-0.01933907641036905</v>
+        <v>-0.04769359051624487</v>
       </c>
       <c r="G57">
-        <v>0.04577775121046986</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.007126781062732481</v>
+      </c>
+      <c r="H57">
+        <v>-0.0424176310174175</v>
+      </c>
+      <c r="I57">
+        <v>-0.01226845235416148</v>
+      </c>
+      <c r="J57">
+        <v>-0.03873008328969086</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1642816224278224</v>
+        <v>0.1977772150655855</v>
       </c>
       <c r="C58">
-        <v>-0.008758497582722295</v>
+        <v>-0.0429806321352386</v>
       </c>
       <c r="D58">
-        <v>-0.04733893492967062</v>
+        <v>-0.007100629202192984</v>
       </c>
       <c r="E58">
-        <v>-0.1393711925579866</v>
+        <v>0.1537550534323053</v>
       </c>
       <c r="F58">
-        <v>0.0723459982461815</v>
+        <v>-0.1235034180257435</v>
       </c>
       <c r="G58">
-        <v>0.2752462820651846</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1605546316697481</v>
+      </c>
+      <c r="H58">
+        <v>-0.3232822264828085</v>
+      </c>
+      <c r="I58">
+        <v>0.0347424195677663</v>
+      </c>
+      <c r="J58">
+        <v>0.6493411799570211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.00284693138421006</v>
+        <v>0.02896139643086256</v>
       </c>
       <c r="C59">
-        <v>-0.2043310104206364</v>
+        <v>0.1985170403821358</v>
       </c>
       <c r="D59">
-        <v>0.01253848041059241</v>
+        <v>0.01229250820356464</v>
       </c>
       <c r="E59">
-        <v>-0.04821182268695715</v>
+        <v>0.06182391022099697</v>
       </c>
       <c r="F59">
-        <v>-0.0123532728583893</v>
+        <v>-0.02570669866052016</v>
       </c>
       <c r="G59">
-        <v>-0.02092766792213707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005937496266285852</v>
+      </c>
+      <c r="H59">
+        <v>0.02371249491300774</v>
+      </c>
+      <c r="I59">
+        <v>0.07458749058579585</v>
+      </c>
+      <c r="J59">
+        <v>0.02933933486323119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1878290860473</v>
+        <v>0.1842022687441848</v>
       </c>
       <c r="C60">
-        <v>-0.1177892893783333</v>
+        <v>0.05565097941346571</v>
       </c>
       <c r="D60">
-        <v>0.02327746483445564</v>
+        <v>0.02996727384277663</v>
       </c>
       <c r="E60">
-        <v>-0.1691203783181454</v>
+        <v>0.2006257110173635</v>
       </c>
       <c r="F60">
-        <v>-0.05635916382383636</v>
+        <v>-0.08486406742931306</v>
       </c>
       <c r="G60">
-        <v>-0.1760345975285668</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05831271617268559</v>
+      </c>
+      <c r="H60">
+        <v>0.2450506629816426</v>
+      </c>
+      <c r="I60">
+        <v>-0.1043246913607106</v>
+      </c>
+      <c r="J60">
+        <v>0.009243061837117535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04910556763312929</v>
+        <v>0.03885732370386125</v>
       </c>
       <c r="C61">
-        <v>-0.0001198402080573133</v>
+        <v>-0.0189775428278021</v>
       </c>
       <c r="D61">
-        <v>-0.01174384211716131</v>
+        <v>0.002996568095448965</v>
       </c>
       <c r="E61">
-        <v>-0.0493029280092175</v>
+        <v>0.0389975320680078</v>
       </c>
       <c r="F61">
-        <v>-0.02584798383537515</v>
+        <v>-0.02998063625904878</v>
       </c>
       <c r="G61">
-        <v>-0.01851519854252805</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008729023873500989</v>
+      </c>
+      <c r="H61">
+        <v>-0.001794697409624055</v>
+      </c>
+      <c r="I61">
+        <v>-0.03598386426362936</v>
+      </c>
+      <c r="J61">
+        <v>0.01962250202704141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04275899653957645</v>
+        <v>0.02901246306980814</v>
       </c>
       <c r="C63">
-        <v>-0.009976876287243397</v>
+        <v>-0.0139884008539447</v>
       </c>
       <c r="D63">
-        <v>0.01604728055323275</v>
+        <v>0.01393583992435687</v>
       </c>
       <c r="E63">
-        <v>-0.03562831135552</v>
+        <v>0.02261380487728469</v>
       </c>
       <c r="F63">
-        <v>-0.005615999609746519</v>
+        <v>-0.02166885882370142</v>
       </c>
       <c r="G63">
-        <v>0.01523422683608276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.006210715249887253</v>
+      </c>
+      <c r="H63">
+        <v>-0.0446649425172938</v>
+      </c>
+      <c r="I63">
+        <v>0.03046993525960241</v>
+      </c>
+      <c r="J63">
+        <v>-0.02167943167145853</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08710114885693231</v>
+        <v>0.06295860257302575</v>
       </c>
       <c r="C64">
-        <v>0.02751959117320113</v>
+        <v>-0.0397859222910995</v>
       </c>
       <c r="D64">
-        <v>0.05503820185668599</v>
+        <v>0.03645130262618023</v>
       </c>
       <c r="E64">
-        <v>-0.05312740626506394</v>
+        <v>0.01488428259339859</v>
       </c>
       <c r="F64">
-        <v>-0.0943808608483275</v>
+        <v>-0.0724727563994842</v>
       </c>
       <c r="G64">
-        <v>-0.06079102719971109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06370654360387114</v>
+      </c>
+      <c r="H64">
+        <v>0.0152507862606549</v>
+      </c>
+      <c r="I64">
+        <v>0.02461145199818665</v>
+      </c>
+      <c r="J64">
+        <v>-0.06933463886792483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01540067796601934</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.003396842281299181</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0002884577200475387</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004782925837448707</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001879629366692658</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01943446637307781</v>
+      </c>
+      <c r="H65">
+        <v>0.001570414884388615</v>
+      </c>
+      <c r="I65">
+        <v>-0.004016372801403115</v>
+      </c>
+      <c r="J65">
+        <v>0.00123685829464001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09812471258395722</v>
+        <v>0.07065208844610568</v>
       </c>
       <c r="C66">
-        <v>0.01705683312075772</v>
+        <v>-0.04842159063401921</v>
       </c>
       <c r="D66">
-        <v>0.03432965931628146</v>
+        <v>0.04407925471503481</v>
       </c>
       <c r="E66">
-        <v>-0.08109301746002567</v>
+        <v>0.0657583948661533</v>
       </c>
       <c r="F66">
-        <v>-0.0437679276063274</v>
+        <v>-0.04593315918565997</v>
       </c>
       <c r="G66">
-        <v>-0.01159544722075793</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01021132636564819</v>
+      </c>
+      <c r="H66">
+        <v>-0.008869014838066814</v>
+      </c>
+      <c r="I66">
+        <v>-0.04694549735645449</v>
+      </c>
+      <c r="J66">
+        <v>-0.03241911364204548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06387366483017085</v>
+        <v>0.04192266783642228</v>
       </c>
       <c r="C67">
-        <v>-0.02090098610407246</v>
+        <v>0.006979030382380243</v>
       </c>
       <c r="D67">
-        <v>0.01130607029135425</v>
+        <v>0.007382137476065801</v>
       </c>
       <c r="E67">
-        <v>-0.02483509067543261</v>
+        <v>0.02765184441406114</v>
       </c>
       <c r="F67">
-        <v>-0.01052406916114194</v>
+        <v>-0.02930712737236674</v>
       </c>
       <c r="G67">
-        <v>0.03611977515651583</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03112838993862336</v>
+      </c>
+      <c r="H67">
+        <v>-0.001597638312196268</v>
+      </c>
+      <c r="I67">
+        <v>-0.03611415543552039</v>
+      </c>
+      <c r="J67">
+        <v>0.01067364822281853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.003886583163764044</v>
+        <v>0.03610791587903762</v>
       </c>
       <c r="C68">
-        <v>-0.2441142669031074</v>
+        <v>0.2342597447899068</v>
       </c>
       <c r="D68">
-        <v>-0.001906124833168737</v>
+        <v>0.004029856582670748</v>
       </c>
       <c r="E68">
-        <v>-0.03513017772433284</v>
+        <v>0.04894899989886021</v>
       </c>
       <c r="F68">
-        <v>-0.001279075765311144</v>
+        <v>-0.02192878780016747</v>
       </c>
       <c r="G68">
-        <v>-0.006449505693108221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.002908820184188129</v>
+      </c>
+      <c r="H68">
+        <v>0.02554948804664546</v>
+      </c>
+      <c r="I68">
+        <v>0.1718882779386043</v>
+      </c>
+      <c r="J68">
+        <v>0.0238181584867547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06675667152414569</v>
+        <v>0.06914756980795286</v>
       </c>
       <c r="C69">
-        <v>0.004910088189321687</v>
+        <v>-0.01513255235044301</v>
       </c>
       <c r="D69">
-        <v>0.02507555622691989</v>
+        <v>0.0312435128736571</v>
       </c>
       <c r="E69">
-        <v>0.01100040425769127</v>
+        <v>0.0081131180956849</v>
       </c>
       <c r="F69">
-        <v>0.0009679461771257809</v>
+        <v>0.0008685687625905479</v>
       </c>
       <c r="G69">
-        <v>0.01557354860488196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02331256717736658</v>
+      </c>
+      <c r="H69">
+        <v>-0.0461584022677174</v>
+      </c>
+      <c r="I69">
+        <v>-0.0003724287584234527</v>
+      </c>
+      <c r="J69">
+        <v>0.004331324504813138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.001014015671003841</v>
+        <v>0.04120317345760305</v>
       </c>
       <c r="C71">
-        <v>-0.2611510230643357</v>
+        <v>0.248369078649885</v>
       </c>
       <c r="D71">
-        <v>-0.002803210345436627</v>
+        <v>-0.01553912237128107</v>
       </c>
       <c r="E71">
-        <v>-0.06332609324962832</v>
+        <v>0.07909876325171461</v>
       </c>
       <c r="F71">
-        <v>-0.01564502959478442</v>
+        <v>-0.01688108815138741</v>
       </c>
       <c r="G71">
-        <v>-0.09237452706874603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01790641062497962</v>
+      </c>
+      <c r="H71">
+        <v>0.04269947108971343</v>
+      </c>
+      <c r="I71">
+        <v>0.1439694834547793</v>
+      </c>
+      <c r="J71">
+        <v>0.03263103599323088</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1162427190868839</v>
+        <v>0.1187107819904316</v>
       </c>
       <c r="C72">
-        <v>-0.01947458176139249</v>
+        <v>-0.004298893630440643</v>
       </c>
       <c r="D72">
-        <v>0.04799031096944775</v>
+        <v>0.05731342293897324</v>
       </c>
       <c r="E72">
-        <v>-0.08848984095369304</v>
+        <v>0.05756110452380397</v>
       </c>
       <c r="F72">
-        <v>-0.009174487177629803</v>
+        <v>-0.06380204670501409</v>
       </c>
       <c r="G72">
-        <v>0.05587116086689661</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.039641197207985</v>
+      </c>
+      <c r="H72">
+        <v>0.001657692277899837</v>
+      </c>
+      <c r="I72">
+        <v>-0.02107290092758535</v>
+      </c>
+      <c r="J72">
+        <v>0.1316022644362889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2788864079845651</v>
+        <v>0.2700225179142958</v>
       </c>
       <c r="C73">
-        <v>-0.1962697832169064</v>
+        <v>0.1066029835858912</v>
       </c>
       <c r="D73">
-        <v>-0.03117525508044599</v>
+        <v>-0.002549592675782977</v>
       </c>
       <c r="E73">
-        <v>-0.3017353703672014</v>
+        <v>0.3239059828390782</v>
       </c>
       <c r="F73">
-        <v>-0.07757840310941982</v>
+        <v>-0.1134902548355075</v>
       </c>
       <c r="G73">
-        <v>-0.3995690100368669</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1263737573680838</v>
+      </c>
+      <c r="H73">
+        <v>0.442530490623143</v>
+      </c>
+      <c r="I73">
+        <v>-0.3412915168579288</v>
+      </c>
+      <c r="J73">
+        <v>0.06775218139879874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1578795076807085</v>
+        <v>0.1518016636535019</v>
       </c>
       <c r="C74">
-        <v>-0.01066091186699191</v>
+        <v>-0.01889543841028342</v>
       </c>
       <c r="D74">
-        <v>0.04818942140284023</v>
+        <v>0.04769974988385788</v>
       </c>
       <c r="E74">
-        <v>0.004225045958369478</v>
+        <v>-0.03154937022266172</v>
       </c>
       <c r="F74">
-        <v>0.04887128852039003</v>
+        <v>0.02571619412949092</v>
       </c>
       <c r="G74">
-        <v>-0.03086360370506433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01541259328706921</v>
+      </c>
+      <c r="H74">
+        <v>0.01685302517213369</v>
+      </c>
+      <c r="I74">
+        <v>-0.01057265510408239</v>
+      </c>
+      <c r="J74">
+        <v>-0.09179124523094426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2364910651628947</v>
+        <v>0.2424911757183874</v>
       </c>
       <c r="C75">
-        <v>-0.01635315009552964</v>
+        <v>-0.01925950523550406</v>
       </c>
       <c r="D75">
-        <v>0.06336782879111477</v>
+        <v>0.101881763413649</v>
       </c>
       <c r="E75">
-        <v>0.1207470743787169</v>
+        <v>-0.09559279876304645</v>
       </c>
       <c r="F75">
-        <v>0.06409763278614825</v>
+        <v>0.09186185510967107</v>
       </c>
       <c r="G75">
-        <v>-0.0213252307360121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006811435984495332</v>
+      </c>
+      <c r="H75">
+        <v>0.01520177458682027</v>
+      </c>
+      <c r="I75">
+        <v>0.06151242599522246</v>
+      </c>
+      <c r="J75">
+        <v>-0.1085200353819678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2435624765553579</v>
+        <v>0.2663518642009846</v>
       </c>
       <c r="C76">
-        <v>-0.02185277587792842</v>
+        <v>-0.01365922461882504</v>
       </c>
       <c r="D76">
-        <v>0.0999863379222076</v>
+        <v>0.1288021797255296</v>
       </c>
       <c r="E76">
-        <v>0.1113635973684857</v>
+        <v>-0.1407757884559944</v>
       </c>
       <c r="F76">
-        <v>0.0804297095805724</v>
+        <v>0.09194501426426492</v>
       </c>
       <c r="G76">
-        <v>-0.04282645929312921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04615209538962192</v>
+      </c>
+      <c r="H76">
+        <v>0.03094523960454977</v>
+      </c>
+      <c r="I76">
+        <v>-0.02336059661124952</v>
+      </c>
+      <c r="J76">
+        <v>-0.1235768387314718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1269337928273034</v>
+        <v>0.133995819639589</v>
       </c>
       <c r="C77">
-        <v>0.0168527072320052</v>
+        <v>-0.0504522798813796</v>
       </c>
       <c r="D77">
-        <v>-0.05355608075899287</v>
+        <v>-0.04281219012271925</v>
       </c>
       <c r="E77">
-        <v>-0.1682710968081176</v>
+        <v>0.1140630312163883</v>
       </c>
       <c r="F77">
-        <v>-0.01880273220118085</v>
+        <v>-0.1304761917780769</v>
       </c>
       <c r="G77">
-        <v>0.1593163094703387</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01632078782235032</v>
+      </c>
+      <c r="H77">
+        <v>-0.1915765768020107</v>
+      </c>
+      <c r="I77">
+        <v>0.1636188257761998</v>
+      </c>
+      <c r="J77">
+        <v>-0.1099839042621885</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09367397877375054</v>
+        <v>0.08990380467286752</v>
       </c>
       <c r="C78">
-        <v>0.03016849436504131</v>
+        <v>-0.05846578127877435</v>
       </c>
       <c r="D78">
-        <v>-0.01742753239047674</v>
+        <v>0.001546748644250189</v>
       </c>
       <c r="E78">
-        <v>-0.06518018018270337</v>
+        <v>0.05047462184539531</v>
       </c>
       <c r="F78">
-        <v>-0.01725338812688901</v>
+        <v>-0.07404379470399222</v>
       </c>
       <c r="G78">
-        <v>-0.0005974282127746497</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.0004485591047017512</v>
+      </c>
+      <c r="H78">
+        <v>-0.0260487358281288</v>
+      </c>
+      <c r="I78">
+        <v>0.03579298686890381</v>
+      </c>
+      <c r="J78">
+        <v>-0.01622649755739284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.05939217987806943</v>
+        <v>0.1143121947929428</v>
       </c>
       <c r="C80">
-        <v>0.003952038157490771</v>
+        <v>0.1202629163223269</v>
       </c>
       <c r="D80">
-        <v>-0.01011676254247929</v>
+        <v>-0.2168054140644336</v>
       </c>
       <c r="E80">
-        <v>-0.02542604383563281</v>
+        <v>-0.6412846721727296</v>
       </c>
       <c r="F80">
-        <v>0.03958610568192819</v>
+        <v>-0.6847764568486401</v>
       </c>
       <c r="G80">
-        <v>0.3556737984876668</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01694415109131358</v>
+      </c>
+      <c r="H80">
+        <v>0.1340260617187572</v>
+      </c>
+      <c r="I80">
+        <v>-0.06689077328025192</v>
+      </c>
+      <c r="J80">
+        <v>0.08125073815028035</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1624431586674085</v>
+        <v>0.1765003009117635</v>
       </c>
       <c r="C81">
-        <v>-0.01519361393032534</v>
+        <v>-0.003717429724353574</v>
       </c>
       <c r="D81">
-        <v>0.05025252884902046</v>
+        <v>0.0840900105314237</v>
       </c>
       <c r="E81">
-        <v>0.1217201110417685</v>
+        <v>-0.1095520859765423</v>
       </c>
       <c r="F81">
-        <v>0.09394941125292129</v>
+        <v>0.0948459591734294</v>
       </c>
       <c r="G81">
-        <v>-0.01991094293331278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02498364399192268</v>
+      </c>
+      <c r="H81">
+        <v>0.006230821818545969</v>
+      </c>
+      <c r="I81">
+        <v>0.02982016071624304</v>
+      </c>
+      <c r="J81">
+        <v>-0.06019214313756555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08205101622282289</v>
+        <v>0.06400600932905932</v>
       </c>
       <c r="C83">
-        <v>0.03508278731172202</v>
+        <v>-0.04046541768252912</v>
       </c>
       <c r="D83">
-        <v>-0.09038491587479168</v>
+        <v>-0.03856510186328823</v>
       </c>
       <c r="E83">
-        <v>-0.03308246523622228</v>
+        <v>0.0553847274039667</v>
       </c>
       <c r="F83">
-        <v>-0.06024226690713525</v>
+        <v>-0.02202113616616766</v>
       </c>
       <c r="G83">
-        <v>0.02934640374623228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04548028221220142</v>
+      </c>
+      <c r="H83">
+        <v>-0.0417450305748703</v>
+      </c>
+      <c r="I83">
+        <v>0.02415463424879175</v>
+      </c>
+      <c r="J83">
+        <v>-0.08504471856312393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2376175058960413</v>
+        <v>0.2545959542799784</v>
       </c>
       <c r="C85">
-        <v>0.04485080249456361</v>
+        <v>-0.05232481038207702</v>
       </c>
       <c r="D85">
-        <v>0.05588712615122179</v>
+        <v>0.08788334054763763</v>
       </c>
       <c r="E85">
-        <v>0.1347661949403945</v>
+        <v>-0.13617545158023</v>
       </c>
       <c r="F85">
-        <v>0.06183439817874284</v>
+        <v>0.09040075059673371</v>
       </c>
       <c r="G85">
-        <v>0.01407455914872086</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.00654761164671884</v>
+      </c>
+      <c r="H85">
+        <v>-0.02197986443836315</v>
+      </c>
+      <c r="I85">
+        <v>0.03942749261006717</v>
+      </c>
+      <c r="J85">
+        <v>-0.1302840507975344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04779705040100016</v>
+        <v>0.02911312620517359</v>
       </c>
       <c r="C86">
-        <v>0.03633333866195559</v>
+        <v>-0.04412053928512399</v>
       </c>
       <c r="D86">
-        <v>0.007243637824153029</v>
+        <v>0.005832128210646409</v>
       </c>
       <c r="E86">
-        <v>-0.04687972051180703</v>
+        <v>0.02969341373591319</v>
       </c>
       <c r="F86">
-        <v>-0.001797208443878166</v>
+        <v>-0.06111049231029899</v>
       </c>
       <c r="G86">
-        <v>0.03687411574026792</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.006232251634623476</v>
+      </c>
+      <c r="H86">
+        <v>-0.05380277749928632</v>
+      </c>
+      <c r="I86">
+        <v>0.05552961607824609</v>
+      </c>
+      <c r="J86">
+        <v>-0.00798167361994763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02462380039385194</v>
+        <v>0.03569062343172198</v>
       </c>
       <c r="C87">
-        <v>-0.05420959966878446</v>
+        <v>0.02230261876488317</v>
       </c>
       <c r="D87">
-        <v>0.01706959108128451</v>
+        <v>0.005977949484790226</v>
       </c>
       <c r="E87">
-        <v>-0.06000111493367283</v>
+        <v>0.07276926178840865</v>
       </c>
       <c r="F87">
-        <v>-0.05839423601411405</v>
+        <v>-0.06324349990358678</v>
       </c>
       <c r="G87">
-        <v>-0.1207376626520516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0270022032293734</v>
+      </c>
+      <c r="H87">
+        <v>0.01104031671439171</v>
+      </c>
+      <c r="I87">
+        <v>-0.007756541295204411</v>
+      </c>
+      <c r="J87">
+        <v>0.07526336480248177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03802455557231034</v>
+        <v>0.0247868589402666</v>
       </c>
       <c r="C88">
-        <v>0.02390568010568185</v>
+        <v>-0.01646721330270199</v>
       </c>
       <c r="D88">
-        <v>0.008878216999339746</v>
+        <v>0.01185985685738529</v>
       </c>
       <c r="E88">
-        <v>0.005749030534191394</v>
+        <v>-0.02170666111056842</v>
       </c>
       <c r="F88">
-        <v>0.01062493287107213</v>
+        <v>-0.01763231331363437</v>
       </c>
       <c r="G88">
-        <v>0.04505725670691425</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02804336893589118</v>
+      </c>
+      <c r="H88">
+        <v>-0.04135878988667954</v>
+      </c>
+      <c r="I88">
+        <v>-0.02043847841165112</v>
+      </c>
+      <c r="J88">
+        <v>0.01687273427132081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.0244306865165518</v>
+        <v>0.05283780711767797</v>
       </c>
       <c r="C89">
-        <v>-0.4249468836567216</v>
+        <v>0.3955245902220155</v>
       </c>
       <c r="D89">
-        <v>-0.09713994593699481</v>
+        <v>-0.03963825390423951</v>
       </c>
       <c r="E89">
-        <v>0.02369597721512775</v>
+        <v>0.0710257189616548</v>
       </c>
       <c r="F89">
-        <v>-0.005291841184913305</v>
+        <v>0.03409124012776276</v>
       </c>
       <c r="G89">
-        <v>0.04503634690678569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06007123814006852</v>
+      </c>
+      <c r="H89">
+        <v>-0.01879907108518669</v>
+      </c>
+      <c r="I89">
+        <v>0.2876115548759009</v>
+      </c>
+      <c r="J89">
+        <v>-0.0269617313063465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01435200451968623</v>
+        <v>0.03539038157370862</v>
       </c>
       <c r="C90">
-        <v>-0.3067656779615042</v>
+        <v>0.3340532584057164</v>
       </c>
       <c r="D90">
-        <v>-0.02254240337340587</v>
+        <v>-0.02299866951347438</v>
       </c>
       <c r="E90">
-        <v>-0.0311372422828926</v>
+        <v>0.04109776584678809</v>
       </c>
       <c r="F90">
-        <v>-0.009745783068078783</v>
+        <v>-0.0150102122172231</v>
       </c>
       <c r="G90">
-        <v>-0.06628864750564779</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02430814680156551</v>
+      </c>
+      <c r="H90">
+        <v>0.02956495961250102</v>
+      </c>
+      <c r="I90">
+        <v>0.2149362493982011</v>
+      </c>
+      <c r="J90">
+        <v>0.01560338034681482</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3033967201428105</v>
+        <v>0.315350555726369</v>
       </c>
       <c r="C91">
-        <v>0.01338032984558414</v>
+        <v>-0.03791172539651567</v>
       </c>
       <c r="D91">
-        <v>0.06060246701328557</v>
+        <v>0.1018021403409304</v>
       </c>
       <c r="E91">
-        <v>0.2687178908605746</v>
+        <v>-0.2152102059694189</v>
       </c>
       <c r="F91">
-        <v>0.1697249632197194</v>
+        <v>0.1917993858111695</v>
       </c>
       <c r="G91">
-        <v>0.0712202026249439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04355639105457939</v>
+      </c>
+      <c r="H91">
+        <v>0.01477405557166032</v>
+      </c>
+      <c r="I91">
+        <v>0.07728549904210889</v>
+      </c>
+      <c r="J91">
+        <v>-0.2479646771067988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03675810541479169</v>
+        <v>0.07423282921330185</v>
       </c>
       <c r="C92">
-        <v>-0.4408032021517884</v>
+        <v>0.4630794949828248</v>
       </c>
       <c r="D92">
-        <v>-0.2085787004172096</v>
+        <v>-0.0642397246594037</v>
       </c>
       <c r="E92">
-        <v>0.106545519776509</v>
+        <v>-0.07499809285436151</v>
       </c>
       <c r="F92">
-        <v>0.09965967431147497</v>
+        <v>0.1295155561434201</v>
       </c>
       <c r="G92">
-        <v>0.4565700782057002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04177269501609419</v>
+      </c>
+      <c r="H92">
+        <v>-0.5141485635693129</v>
+      </c>
+      <c r="I92">
+        <v>-0.6683594101279299</v>
+      </c>
+      <c r="J92">
+        <v>-0.1254955130753153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.03056266317745653</v>
+        <v>0.03522493188684458</v>
       </c>
       <c r="C93">
-        <v>-0.3682962484252737</v>
+        <v>0.4044859269006527</v>
       </c>
       <c r="D93">
-        <v>-0.06881897352523428</v>
+        <v>-0.04957731295502501</v>
       </c>
       <c r="E93">
-        <v>0.0429126208470967</v>
+        <v>0.02976048817705232</v>
       </c>
       <c r="F93">
-        <v>0.01687589754946939</v>
+        <v>0.05108766299547512</v>
       </c>
       <c r="G93">
-        <v>0.01732940169657616</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0394750381407739</v>
+      </c>
+      <c r="H93">
+        <v>0.03898916068195322</v>
+      </c>
+      <c r="I93">
+        <v>0.1997165190708376</v>
+      </c>
+      <c r="J93">
+        <v>-0.01020015918025034</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.293737716585988</v>
+        <v>0.3190879411561364</v>
       </c>
       <c r="C94">
-        <v>-0.04082594155592738</v>
+        <v>0.004380510662553609</v>
       </c>
       <c r="D94">
-        <v>0.01758894793506934</v>
+        <v>0.1505606476155475</v>
       </c>
       <c r="E94">
-        <v>0.3777075483116973</v>
+        <v>-0.2366851818672738</v>
       </c>
       <c r="F94">
-        <v>0.4254009157277578</v>
+        <v>0.2850948518146458</v>
       </c>
       <c r="G94">
-        <v>-0.04670543238256658</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1696118656131169</v>
+      </c>
+      <c r="H94">
+        <v>-0.07477709500195222</v>
+      </c>
+      <c r="I94">
+        <v>0.1282669328535503</v>
+      </c>
+      <c r="J94">
+        <v>0.3893615847995354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1954126021807086</v>
+        <v>0.1376534693099644</v>
       </c>
       <c r="C95">
-        <v>-0.0392416500382216</v>
+        <v>-0.05878620739676217</v>
       </c>
       <c r="D95">
-        <v>-0.001465465093845113</v>
+        <v>0.04472797041382473</v>
       </c>
       <c r="E95">
-        <v>0.4490146191973425</v>
+        <v>0.001153864481944148</v>
       </c>
       <c r="F95">
-        <v>-0.8216304629038831</v>
+        <v>0.0705122957624699</v>
       </c>
       <c r="G95">
-        <v>0.09384003963199272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9331698258665935</v>
+      </c>
+      <c r="H95">
+        <v>0.08809937345586476</v>
+      </c>
+      <c r="I95">
+        <v>-0.06114279806968537</v>
+      </c>
+      <c r="J95">
+        <v>0.2009665967589244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2185057386870392</v>
+        <v>0.2077649407115358</v>
       </c>
       <c r="C98">
-        <v>-0.1352510512727058</v>
+        <v>0.07101001470083113</v>
       </c>
       <c r="D98">
-        <v>-0.04080777767187899</v>
+        <v>-0.01078417767103378</v>
       </c>
       <c r="E98">
-        <v>-0.1038849905129428</v>
+        <v>0.189101704929665</v>
       </c>
       <c r="F98">
-        <v>-0.03812958866620618</v>
+        <v>-0.03089821735974533</v>
       </c>
       <c r="G98">
-        <v>-0.2656555567037903</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06553991705415969</v>
+      </c>
+      <c r="H98">
+        <v>0.3079205086341137</v>
+      </c>
+      <c r="I98">
+        <v>-0.2012040907636755</v>
+      </c>
+      <c r="J98">
+        <v>-0.005071656349975865</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01996023770379185</v>
+        <v>0.01237752664047122</v>
       </c>
       <c r="C101">
-        <v>0.01710319417046146</v>
+        <v>-0.02871565824694448</v>
       </c>
       <c r="D101">
-        <v>0.02521607815218656</v>
+        <v>0.02818425273968946</v>
       </c>
       <c r="E101">
-        <v>-0.02923179406332728</v>
+        <v>0.031118327468141</v>
       </c>
       <c r="F101">
-        <v>-0.006313847899745578</v>
+        <v>-0.06006745172310268</v>
       </c>
       <c r="G101">
-        <v>0.04104031147278848</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.005137005584880941</v>
+      </c>
+      <c r="H101">
+        <v>-0.1159198555915531</v>
+      </c>
+      <c r="I101">
+        <v>-0.006578352488230515</v>
+      </c>
+      <c r="J101">
+        <v>0.1698639251461671</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1186643041178074</v>
+        <v>0.1210045676013228</v>
       </c>
       <c r="C102">
-        <v>0.006416197712443083</v>
+        <v>-0.02543359484415069</v>
       </c>
       <c r="D102">
-        <v>0.04110115404090483</v>
+        <v>0.05255992564498058</v>
       </c>
       <c r="E102">
-        <v>0.08366673773882176</v>
+        <v>-0.07979718628763288</v>
       </c>
       <c r="F102">
-        <v>0.003003628379352743</v>
+        <v>0.04625293604825092</v>
       </c>
       <c r="G102">
-        <v>0.001180581883589701</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02736919692415661</v>
+      </c>
+      <c r="H102">
+        <v>0.01231193713921217</v>
+      </c>
+      <c r="I102">
+        <v>0.03780262500137711</v>
+      </c>
+      <c r="J102">
+        <v>-0.04847994703009663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01748236936338403</v>
+        <v>0.03075070874577547</v>
       </c>
       <c r="C103">
-        <v>-0.002139124462669254</v>
+        <v>-0.004587448860684121</v>
       </c>
       <c r="D103">
-        <v>0.01618259069514396</v>
+        <v>0.02051202289138312</v>
       </c>
       <c r="E103">
-        <v>0.02888127030703247</v>
+        <v>-0.02995699449794373</v>
       </c>
       <c r="F103">
-        <v>0.0163316640619333</v>
+        <v>0.002204543627894669</v>
       </c>
       <c r="G103">
-        <v>-0.009634641321575037</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01402936800753459</v>
+      </c>
+      <c r="H103">
+        <v>-0.01141045467313707</v>
+      </c>
+      <c r="I103">
+        <v>0.02992526454522888</v>
+      </c>
+      <c r="J103">
+        <v>-0.008822171218505362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
